--- a/17-8-20众安换人/双骏木工1546换人.xlsx
+++ b/17-8-20众安换人/双骏木工1546换人.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofeng/Desktop/ExcelTool/17-8-20众安换人/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8445"/>
+    <workbookView xWindow="2100" yWindow="1260" windowWidth="20380" windowHeight="8440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="增加被保险人" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">增加被保险人!$2:$59</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -367,7 +380,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>受益人姓名</t>
@@ -648,10 +660,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>徐决良</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>362322196508226058</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -667,12 +675,40 @@
     <t>吴家林</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>徐决良</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'fen'g'z</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170814 24时</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -833,6 +869,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -893,7 +936,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,8 +946,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1042,6 +1115,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,13 +1131,21 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="3232" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1074,7 +1156,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1398,44 +1485,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="45" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="45" customWidth="1"/>
-    <col min="4" max="5" width="20.375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="47" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="47" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="47" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="47" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="48" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="47" customWidth="1"/>
     <col min="11" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="44" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:16384" s="44" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
-    <row r="2" spans="1:16384" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:16384" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1589,7 @@
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
     </row>
-    <row r="3" spans="1:16384" customFormat="1" ht="17.25">
+    <row r="3" spans="1:16384" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -1512,7 +1599,7 @@
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="53" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="52" t="str">
@@ -17909,18 +17996,18 @@
       <c r="XFC3" s="45"/>
       <c r="XFD3" s="45"/>
     </row>
-    <row r="4" spans="1:16384" customFormat="1" ht="17.25">
+    <row r="4" spans="1:16384" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>53</v>
+      <c r="B4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="52" t="str">
         <f t="shared" ref="E4:E57" si="0">IF(LEN(D4)=0,"为空",IF(AND(LEN(D4)&lt;&gt;18,LEN(D4)&gt;0),"位数不对",IF(MID("10X98765432",MOD((VALUE(MID(D4,1,1))*7+VALUE(MID(D4,2,1))*9+VALUE(MID(D4,3,1))*10+VALUE(MID(D4,4,1))*5+VALUE(MID(D4,5,1))*8+VALUE(MID(D4,6,1))*4+VALUE(MID(D4,7,1))*2+VALUE(MID(D4,8,1))*1+VALUE(MID(D4,9,1))*6+VALUE(MID(D4,10,1))*3+VALUE(MID(D4,11,1))*7+VALUE(MID(D4,12,1))*9+VALUE(MID(D4,13,1))*10+VALUE(MID(D4,14,1))*5+VALUE(MID(D4,15,1))*8+VALUE(MID(D4,16,1))*4+VALUE(MID(D4,17,1))*2),11)+1,1)=MID(D4,18,1),"身份证号正确","身份证号错误")))</f>
@@ -34316,7 +34403,7 @@
       <c r="XFC4" s="45"/>
       <c r="XFD4" s="45"/>
     </row>
-    <row r="5" spans="1:16384" customFormat="1" ht="17.25">
+    <row r="5" spans="1:16384" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -50708,7 +50795,7 @@
       <c r="XFC5" s="45"/>
       <c r="XFD5" s="45"/>
     </row>
-    <row r="6" spans="1:16384" ht="17.25">
+    <row r="6" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50718,7 +50805,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16384" ht="17.25">
+    <row r="7" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50728,7 +50815,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="17.25">
+    <row r="8" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50738,7 +50825,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="17.25">
+    <row r="9" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50748,7 +50835,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="17.25">
+    <row r="10" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50758,7 +50845,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16384" ht="17.25">
+    <row r="11" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E11" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50768,7 +50855,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16384" ht="17.25">
+    <row r="12" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50778,7 +50865,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16384" ht="17.25">
+    <row r="13" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50788,7 +50875,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16384" ht="17.25">
+    <row r="14" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50798,7 +50885,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16384" ht="17.25">
+    <row r="15" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50808,7 +50895,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16384" ht="17.25">
+    <row r="16" spans="1:16384" ht="17" x14ac:dyDescent="0.25">
       <c r="E16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50818,7 +50905,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="17.25">
+    <row r="17" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50828,7 +50915,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="17.25">
+    <row r="18" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50838,7 +50925,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="17.25">
+    <row r="19" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50848,7 +50935,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="17.25">
+    <row r="20" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50858,7 +50945,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="17.25">
+    <row r="21" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50868,7 +50955,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="5:6" ht="17.25">
+    <row r="22" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E22" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50878,7 +50965,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="5:6" ht="17.25">
+    <row r="23" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E23" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50888,7 +50975,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="5:6" ht="17.25">
+    <row r="24" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E24" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50898,7 +50985,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:6" ht="17.25">
+    <row r="25" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E25" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50908,7 +50995,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="5:6" ht="17.25">
+    <row r="26" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E26" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50918,7 +51005,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:6" ht="17.25">
+    <row r="27" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E27" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50928,7 +51015,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:6" ht="17.25">
+    <row r="28" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E28" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50938,7 +51025,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="5:6" ht="17.25">
+    <row r="29" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E29" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50948,7 +51035,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="17.25">
+    <row r="30" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E30" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50958,7 +51045,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="17.25">
+    <row r="31" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E31" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50968,7 +51055,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="17.25">
+    <row r="32" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E32" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50978,7 +51065,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="17.25">
+    <row r="33" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E33" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50988,7 +51075,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="17.25">
+    <row r="34" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E34" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -50998,7 +51085,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="17.25">
+    <row r="35" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E35" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51008,7 +51095,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="17.25">
+    <row r="36" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E36" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51018,7 +51105,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="17.25">
+    <row r="37" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E37" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51028,7 +51115,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:6" ht="17.25">
+    <row r="38" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E38" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51038,7 +51125,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:6" ht="17.25">
+    <row r="39" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E39" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51048,7 +51135,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:6" ht="17.25">
+    <row r="40" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E40" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51058,7 +51145,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="17.25">
+    <row r="41" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E41" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51068,7 +51155,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:6" ht="17.25">
+    <row r="42" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51078,7 +51165,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:6" ht="17.25">
+    <row r="43" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E43" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51088,7 +51175,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="5:6" ht="17.25">
+    <row r="44" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E44" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51098,7 +51185,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="5:6" ht="17.25">
+    <row r="45" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E45" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51108,7 +51195,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:6" ht="17.25">
+    <row r="46" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E46" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51118,7 +51205,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:6" ht="17.25">
+    <row r="47" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E47" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51128,7 +51215,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:6" ht="17.25">
+    <row r="48" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E48" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51138,7 +51225,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="5:6" ht="17.25">
+    <row r="49" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E49" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51148,7 +51235,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="5:6" ht="17.25">
+    <row r="50" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E50" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51158,7 +51245,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="5:6" ht="17.25">
+    <row r="51" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E51" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51168,7 +51255,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:6" ht="17.25">
+    <row r="52" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E52" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51178,7 +51265,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:6" ht="17.25">
+    <row r="53" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E53" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51188,7 +51275,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:6" ht="17.25">
+    <row r="54" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E54" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51198,7 +51285,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:6" ht="17.25">
+    <row r="55" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E55" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51208,7 +51295,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="5:6" ht="17.25">
+    <row r="56" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E56" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51218,7 +51305,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="5:6" ht="17.25">
+    <row r="57" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="E57" s="52" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
@@ -51228,13 +51315,13 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:6" ht="17.25">
+    <row r="58" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="F58" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:6" ht="17.25">
+    <row r="59" spans="5:6" ht="17" x14ac:dyDescent="0.25">
       <c r="F59" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -51264,24 +51351,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="4" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -51354,12 +51441,12 @@
       <c r="BF1" s="11"/>
       <c r="BG1" s="11"/>
     </row>
-    <row r="2" spans="1:59" s="39" customFormat="1" ht="16.5">
+    <row r="2" spans="1:59" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>11</v>
@@ -51370,18 +51457,18 @@
         <v>为空</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="39" customFormat="1" ht="16.5">
+    <row r="3" spans="1:59" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="9" t="str">
@@ -51389,530 +51476,538 @@
         <v>为空</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="39" customFormat="1" ht="16.5">
+    <row r="4" spans="1:59" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="42"/>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
+      <c r="F4" s="39" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" ht="17.25">
+    <row r="5" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D5" s="43"/>
       <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="17.25">
+    <row r="6" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D6" s="43"/>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="17.25">
+    <row r="7" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D7" s="43"/>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="17.25">
+    <row r="8" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D8" s="43"/>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="17.25">
+    <row r="9" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D9" s="43"/>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="17.25">
+    <row r="10" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D10" s="43"/>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="17.25">
+    <row r="11" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D11" s="43"/>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="17.25">
+    <row r="12" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D12" s="43"/>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="17.25">
+    <row r="13" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D13" s="43"/>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="17.25">
+    <row r="14" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D14" s="43"/>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="17.25">
+    <row r="15" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D15" s="43"/>
       <c r="E15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="17.25">
+    <row r="16" spans="1:59" ht="17" x14ac:dyDescent="0.25">
       <c r="D16" s="43"/>
       <c r="E16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="17.25">
+    <row r="17" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D17" s="43"/>
       <c r="E17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="17.25">
+    <row r="18" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D18" s="43"/>
       <c r="E18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="17.25">
+    <row r="19" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D19" s="43"/>
       <c r="E19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="17.25">
+    <row r="20" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D20" s="43"/>
       <c r="E20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="17.25">
+    <row r="21" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D21" s="43"/>
       <c r="E21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="17.25">
+    <row r="22" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D22" s="43"/>
       <c r="E22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="17.25">
+    <row r="23" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D23" s="43"/>
       <c r="E23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="17.25">
+    <row r="24" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D24" s="43"/>
       <c r="E24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="17.25">
+    <row r="25" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D25" s="43"/>
       <c r="E25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="17.25">
+    <row r="26" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D26" s="43"/>
       <c r="E26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="17.25">
+    <row r="27" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D27" s="43"/>
       <c r="E27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="17.25">
+    <row r="28" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D28" s="43"/>
       <c r="E28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="17.25">
+    <row r="29" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D29" s="43"/>
       <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="30" spans="4:5" ht="17.25">
+    <row r="30" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D30" s="43"/>
       <c r="E30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="17.25">
+    <row r="31" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D31" s="43"/>
       <c r="E31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="17.25">
+    <row r="32" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D32" s="43"/>
       <c r="E32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="17.25">
+    <row r="33" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D33" s="43"/>
       <c r="E33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="17.25">
+    <row r="34" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D34" s="43"/>
       <c r="E34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="17.25">
+    <row r="35" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D35" s="43"/>
       <c r="E35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="17.25">
+    <row r="36" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D36" s="43"/>
       <c r="E36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="37" spans="4:5" ht="17.25">
+    <row r="37" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D37" s="43"/>
       <c r="E37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="17.25">
+    <row r="38" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D38" s="43"/>
       <c r="E38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="17.25">
+    <row r="39" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D39" s="43"/>
       <c r="E39" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="40" spans="4:5" ht="17.25">
+    <row r="40" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D40" s="43"/>
       <c r="E40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="41" spans="4:5" ht="17.25">
+    <row r="41" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D41" s="43"/>
       <c r="E41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="42" spans="4:5" ht="17.25">
+    <row r="42" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D42" s="43"/>
       <c r="E42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="43" spans="4:5" ht="17.25">
+    <row r="43" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D43" s="43"/>
       <c r="E43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="44" spans="4:5" ht="17.25">
+    <row r="44" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D44" s="43"/>
       <c r="E44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="45" spans="4:5" ht="17.25">
+    <row r="45" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D45" s="43"/>
       <c r="E45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="46" spans="4:5" ht="17.25">
+    <row r="46" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D46" s="43"/>
       <c r="E46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="47" spans="4:5" ht="17.25">
+    <row r="47" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D47" s="43"/>
       <c r="E47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="48" spans="4:5" ht="17.25">
+    <row r="48" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D48" s="43"/>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="49" spans="4:5" ht="17.25">
+    <row r="49" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D49" s="43"/>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="50" spans="4:5" ht="17.25">
+    <row r="50" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D50" s="43"/>
       <c r="E50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="51" spans="4:5" ht="17.25">
+    <row r="51" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D51" s="43"/>
       <c r="E51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="52" spans="4:5" ht="17.25">
+    <row r="52" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="53" spans="4:5" ht="17.25">
+    <row r="53" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="54" spans="4:5" ht="17.25">
+    <row r="54" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="55" spans="4:5" ht="17.25">
+    <row r="55" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="56" spans="4:5" ht="17.25">
+    <row r="56" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="57" spans="4:5" ht="17.25">
+    <row r="57" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="58" spans="4:5" ht="17.25">
+    <row r="58" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="59" spans="4:5" ht="17.25">
+    <row r="59" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="60" spans="4:5" ht="17.25">
+    <row r="60" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="61" spans="4:5" ht="17.25">
+    <row r="61" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="62" spans="4:5" ht="17.25">
+    <row r="62" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="17.25">
+    <row r="63" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="64" spans="4:5" ht="17.25">
+    <row r="64" spans="4:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="17.25">
+    <row r="65" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="17.25">
+    <row r="66" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="17.25">
+    <row r="67" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E82" si="1">IF(LEN(D67)=0,"为空",IF(AND(LEN(D67)&lt;&gt;18,LEN(D67)&gt;0),"位数不对",IF(MID("10X98765432",MOD((VALUE(MID(D67,1,1))*7+VALUE(MID(D67,2,1))*9+VALUE(MID(D67,3,1))*10+VALUE(MID(D67,4,1))*5+VALUE(MID(D67,5,1))*8+VALUE(MID(D67,6,1))*4+VALUE(MID(D67,7,1))*2+VALUE(MID(D67,8,1))*1+VALUE(MID(D67,9,1))*6+VALUE(MID(D67,10,1))*3+VALUE(MID(D67,11,1))*7+VALUE(MID(D67,12,1))*9+VALUE(MID(D67,13,1))*10+VALUE(MID(D67,14,1))*5+VALUE(MID(D67,15,1))*8+VALUE(MID(D67,16,1))*4+VALUE(MID(D67,17,1))*2),11)+1,1)=MID(D67,18,1),"身份证号正确","身份证号错误")))</f>
         <v>为空</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="17.25">
+    <row r="68" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="17.25">
+    <row r="69" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="17.25">
+    <row r="70" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="71" spans="5:5" ht="17.25">
+    <row r="71" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="72" spans="5:5" ht="17.25">
+    <row r="72" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="73" spans="5:5" ht="17.25">
+    <row r="73" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="74" spans="5:5" ht="17.25">
+    <row r="74" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="75" spans="5:5" ht="17.25">
+    <row r="75" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="76" spans="5:5" ht="17.25">
+    <row r="76" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="77" spans="5:5" ht="17.25">
+    <row r="77" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="78" spans="5:5" ht="17.25">
+    <row r="78" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="79" spans="5:5" ht="17.25">
+    <row r="79" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="80" spans="5:5" ht="17.25">
+    <row r="80" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="17.25">
+    <row r="81" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E81" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="17.25">
+    <row r="82" spans="5:5" ht="17" x14ac:dyDescent="0.25">
       <c r="E82" s="9" t="str">
         <f t="shared" si="1"/>
         <v>为空</v>
@@ -51927,37 +52022,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="12" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="20" customWidth="1"/>
     <col min="9" max="9" width="8" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="20" customWidth="1"/>
     <col min="11" max="11" width="9" style="20"/>
     <col min="12" max="12" width="9" style="21" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="20" customWidth="1"/>
     <col min="14" max="16" width="9" style="22"/>
-    <col min="17" max="17" width="13.125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="20" customWidth="1"/>
     <col min="18" max="20" width="9" style="23"/>
     <col min="21" max="22" width="9" style="22"/>
     <col min="23" max="23" width="9" style="23"/>
     <col min="24" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="15" customFormat="1" ht="59.25" customHeight="1">
+    <row r="1" spans="1:23" s="15" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -52010,56 +52105,56 @@
       <c r="V1" s="26"/>
       <c r="W1" s="38"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
       <c r="E2" s="31"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
       <c r="E3" s="31"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
       <c r="E4" s="31"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="30"/>
       <c r="E5" s="31"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="32"/>
       <c r="E6" s="31"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="32"/>
       <c r="E7" s="31"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="32"/>
       <c r="E8" s="31"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="32"/>
@@ -52076,28 +52171,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="7.875" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="1.9" customHeight="1"/>
-    <row r="2" spans="1:58" s="1" customFormat="1" ht="33">
+    <row r="1" spans="1:58" ht="2" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:58" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -52173,7 +52268,7 @@
       <c r="BE2" s="11"/>
       <c r="BF2" s="11"/>
     </row>
-    <row r="3" spans="1:58" s="12" customFormat="1" ht="16.5">
+    <row r="3" spans="1:58" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
@@ -52199,7 +52294,7 @@
         <v>20160401</v>
       </c>
     </row>
-    <row r="4" spans="1:58" s="13" customFormat="1" ht="16.5">
+    <row r="4" spans="1:58" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
@@ -52225,7 +52320,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="13" customFormat="1" ht="16.5">
+    <row r="5" spans="1:58" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -52235,7 +52330,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:58" s="13" customFormat="1" ht="16.5">
+    <row r="6" spans="1:58" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -52245,7 +52340,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:58" s="13" customFormat="1" ht="16.5">
+    <row r="7" spans="1:58" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -52255,9 +52350,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:58" s="13" customFormat="1"/>
-    <row r="9" spans="1:58" s="13" customFormat="1"/>
-    <row r="10" spans="1:58" s="13" customFormat="1"/>
+    <row r="8" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="2">
@@ -52279,22 +52374,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -52363,7 +52458,7 @@
       <c r="AZ1" s="11"/>
       <c r="BA1" s="11"/>
     </row>
-    <row r="2" spans="1:53" s="2" customFormat="1" ht="16.5">
+    <row r="2" spans="1:53" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -52386,7 +52481,7 @@
         <v>20160404</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="17.25">
+    <row r="3" spans="1:53" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -52397,7 +52492,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:53" ht="17.25">
+    <row r="4" spans="1:53" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
